--- a/Udacity Preparing and Modelling Data/Data Model for Seven Sages Brewing Company/source-files/Monthly Sales Logs/SSBC - Jun 2021 Sales.xlsx
+++ b/Udacity Preparing and Modelling Data/Data Model for Seven Sages Brewing Company/source-files/Monthly Sales Logs/SSBC - Jun 2021 Sales.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenor_1m07fy7\Desktop\Udacity - Power BI Idea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PowerBI\Power-BI\Udacity Preparing and Modelling Data\Data Model for Seven Sages Brewing Company\source-files\Monthly Sales Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385D42CB-BF53-464D-8ED2-43F0930B7817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB866F91-84FF-440E-BB40-64AA1C3DEE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{21FC5A65-5F8D-43A1-8D00-F7AB0D9A9B71}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{21FC5A65-5F8D-43A1-8D00-F7AB0D9A9B71}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun 2021 Sales" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -229,11 +227,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -295,7 +292,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -385,7 +382,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4301CFA6-2F41-49EC-BAC5-8FFBFEB3755C}" name="Table537111213" displayName="Table537111213" ref="A1:E68" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E68" xr:uid="{5FADBE7F-BA1B-4A37-90C5-0AFE3140F2F2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8F6F8DD3-F74C-4AF4-B686-AB1EDCDDE0F5}" name="CustID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{05F36D6A-37AD-4359-A521-E98565D15711}" name="ProdID" dataDxfId="3"/>
@@ -697,15 +693,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -722,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,9 +732,8 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -756,9 +749,8 @@
       <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -774,9 +766,8 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -792,9 +783,8 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -810,9 +800,8 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -828,9 +817,8 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -846,9 +834,8 @@
       <c r="E8" s="1">
         <v>12</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -864,9 +851,8 @@
       <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -882,9 +868,8 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -900,9 +885,8 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -918,9 +902,8 @@
       <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -936,9 +919,8 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -954,9 +936,8 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,9 +953,8 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,9 +970,8 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,9 +987,8 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,9 +1004,8 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1044,9 +1021,8 @@
       <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1062,9 +1038,8 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1080,9 +1055,8 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1098,9 +1072,8 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,9 +1089,8 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1134,9 +1106,8 @@
       <c r="E24" s="1">
         <v>2</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1152,9 +1123,8 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1170,9 +1140,8 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1188,9 +1157,8 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1206,9 +1174,8 @@
       <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,9 +1191,8 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,9 +1208,8 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1260,9 +1225,8 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,9 +1242,8 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1296,9 +1259,8 @@
       <c r="E33" s="1">
         <v>12</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1314,9 +1276,8 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -1332,9 +1293,8 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1350,9 +1310,8 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1368,9 +1327,8 @@
       <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1386,9 +1344,8 @@
       <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1404,9 +1361,8 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1422,9 +1378,8 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1440,9 +1395,8 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1458,9 +1412,8 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1476,9 +1429,8 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1494,9 +1446,8 @@
       <c r="E44" s="1">
         <v>6</v>
       </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -1512,9 +1463,8 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -1530,9 +1480,8 @@
       <c r="E46" s="1">
         <v>2</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1548,9 +1497,8 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -1566,9 +1514,8 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1584,9 +1531,8 @@
       <c r="E49" s="1">
         <v>2</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -1602,9 +1548,8 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -1620,13 +1565,12 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="2">
@@ -1639,11 +1583,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C53" s="2">
@@ -1656,11 +1600,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="2">
@@ -1673,11 +1617,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="2">
@@ -1690,11 +1634,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="2">
@@ -1707,11 +1651,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C57" s="2">
@@ -1724,45 +1668,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="2">
         <v>44371</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="2">
         <v>44367</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="2">
@@ -1775,11 +1719,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C61" s="2">
@@ -1792,41 +1736,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="2">
         <v>44371</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="2">
         <v>44367</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
